--- a/out/Fevin.xlsx
+++ b/out/Fevin.xlsx
@@ -39111,7 +39111,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>v</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
